--- a/all_excels.xlsx
+++ b/all_excels.xlsx
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="93">
   <si>
     <t>Command</t>
   </si>
@@ -1312,75 +1312,6 @@
 Eth121/1/4     1       eth  access down    Administratively down     auto(D) --
 </t>
   </si>
-  <si>
-    <t xml:space="preserve">Eth3/4        1       eth  trunk  down    Link not connected          40G(D) 23
-Eth3/7        1       eth  trunk  down    SFP not inserted            40G(D) 26
-Eth3/8        1       eth  trunk  down    SFP not inserted            40G(D) 27
-Eth3/9        1       eth  trunk  down    SFP not inserted            40G(D) 28
-Eth3/10       1       eth  trunk  down    SFP not inserted            40G(D) 29
-Eth3/11       1       eth  access down    SFP not inserted            40G(D) --
-Eth3/12       1       eth  access down    SFP not inserted            40G(D) --
-Eth4/3        1       eth  trunk  down    Link not connected          40G(D) 22
-Eth4/7        1       eth  trunk  down    SFP not inserted            40G(D) 26
-Eth4/8        1       eth  trunk  down    SFP not inserted            40G(D) 27
-Eth4/9        1       eth  trunk  down    SFP not inserted            40G(D) 28
-Eth4/10       1       eth  trunk  down    SFP not inserted            40G(D) 29
-Eth4/11       1       eth  access down    SFP not inserted            40G(D) --
-Eth4/12       1       eth  access down    SFP not inserted            40G(D) --
-Eth5/1        1       eth  access down    SFP not inserted            40G(D) --
-Eth5/2        1       eth  access down    SFP not inserted            40G(D) --
-Eth5/3        1       eth  access down    SFP not inserted            40G(D) --
-Eth5/4        1       eth  access down    SFP not inserted            40G(D) --
-Eth5/5        1       eth  access down    SFP not inserted            40G(D) --
-Eth5/6        1       eth  access down    SFP not inserted            40G(D) --
-Eth5/7        1       eth  access down    SFP not inserted            40G(D) --
-Eth5/8        1       eth  access down    SFP not inserted            40G(D) --
-Eth5/9        1       eth  access down    SFP not inserted            40G(D) --
-Eth5/10       1       eth  access down    SFP not inserted            40G(D) --
-Eth5/11       1       eth  access down    SFP not inserted            40G(D) --
-Eth5/12       1       eth  access down    SFP not inserted            40G(D) --
-Eth6/1        1       eth  access down    SFP not inserted            40G(D) --
-Eth6/2        1       eth  access down    SFP not inserted            40G(D) --
-Eth6/3        1       eth  access down    SFP not inserted            40G(D) --
-Eth6/4        1       eth  access down    SFP not inserted            40G(D) --
-Eth6/5        1       eth  access down    SFP not inserted            40G(D) --
-Eth6/6        1       eth  access down    SFP not inserted            40G(D) --
-Eth6/7        1       eth  access down    SFP not inserted            40G(D) --
-Eth6/8        1       eth  access down    SFP not inserted            40G(D) --
-Eth6/9        1       eth  access down    SFP not inserted            40G(D) --
-Eth6/10       1       eth  access down    SFP not inserted            40G(D) --
-Eth6/11       1       eth  access down    SFP not inserted            40G(D) --
-Eth6/12       1       eth  access down    SFP not inserted            40G(D) --
-Eth7/1        1       eth  access down    SFP not inserted            40G(D) --
-Eth7/2        1       eth  access down    SFP not inserted            40G(D) --
-Eth7/3        1       eth  access down    SFP not inserted            40G(D) --
-Eth7/4        1       eth  access down    SFP not inserted            40G(D) --
-Eth7/5        1       eth  access down    SFP not inserted            40G(D) --
-Eth7/6        1       eth  access down    SFP not inserted            40G(D) --
-Eth7/7        1       eth  access down    SFP not inserted            40G(D) --
-Eth7/8        1       eth  access down    SFP not inserted            40G(D) --
-Eth7/9        1       eth  access down    SFP not inserted            40G(D) --
-Eth7/10       1       eth  access down    SFP not inserted            40G(D) --
-Eth7/11       1       eth  access down    SFP not inserted            40G(D) --
-Eth7/12       1       eth  access down    SFP not inserted            40G(D) --
-Eth8/1        1       eth  access down    SFP not inserted            40G(D) --
-Eth8/2        1       eth  access down    SFP not inserted            40G(D) --
-Eth8/3        1       eth  access down    SFP not inserted            40G(D) --
-Eth8/4        1       eth  access down    SFP not inserted            40G(D) --
-Eth8/5        1       eth  access down    SFP not inserted            40G(D) --
-Eth8/6        1       eth  access down    SFP not inserted            40G(D) --
-Eth8/7        1       eth  access down    SFP not inserted            40G(D) --
-Eth8/8        1       eth  access down    SFP not inserted            40G(D) --
-Eth8/9        1       eth  access down    SFP not inserted            40G(D) --
-Eth8/10       1       eth  access down    SFP not inserted            40G(D) --
-Eth8/11       1       eth  access down    SFP not inserted            40G(D) --
-Eth8/12       1       eth  access down    SFP not inserted            40G(D) --
-Po26         1       eth  trunk  down    No operational members      auto(D)  lacp
-Po27         1       eth  trunk  down    No operational members      auto(D)  lacp
-Po28         1       eth  trunk  down    No operational members      auto(D)  lacp
-Po29         1       eth  trunk  down    No operational members      auto(D)  lacp
-</t>
-  </si>
 </sst>
 </file>
 
@@ -1441,7 +1372,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1754,8 +1685,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2246.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1864,8 +1794,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="476.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1968,8 +1897,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="73.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2072,8 +2000,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5110.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2173,8 +2100,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5110.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2274,8 +2200,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="482.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2378,8 +2303,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2482,8 +2406,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="719.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2586,8 +2509,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5430.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2687,8 +2609,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2651.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2791,8 +2712,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2205.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2895,8 +2815,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2731.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -2999,8 +2918,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="800.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3109,8 +3027,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2246.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3216,8 +3133,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="636.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3323,8 +3239,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="962.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3427,8 +3342,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="374.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3531,8 +3445,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="962.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3635,8 +3548,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="1058.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3739,8 +3651,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5430.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3840,8 +3751,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="73.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3944,8 +3854,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5110.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4045,8 +3954,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="396.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4149,8 +4057,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="476.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4253,8 +4160,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="1058.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4357,8 +4263,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2651.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4461,8 +4366,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2294.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4565,8 +4469,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="630.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4666,8 +4569,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="73.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4773,8 +4675,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5122.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4877,8 +4778,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="553.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -4984,8 +4884,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2292.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5088,8 +4987,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2375.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5192,8 +5090,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="879.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5296,8 +5193,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="70.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5397,8 +5293,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2205.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5501,8 +5396,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="719.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5605,8 +5499,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="472.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5706,8 +5599,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="880.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5813,8 +5705,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="630.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -5914,8 +5805,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="728.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6018,8 +5908,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5282.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6066,9 +5955,6 @@
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -6122,8 +6008,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2624.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6226,8 +6111,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5110.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6327,8 +6211,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="879.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6431,8 +6314,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="2651.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -6535,8 +6417,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="113.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="73.7109375" style="1" customWidth="1"/>
+    <col min="1" max="2" width="70.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
